--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Ror2.xlsx
@@ -88,7 +88,7 @@
     <t>Ror2</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,10 +540,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.669265333333333</v>
+        <v>0.491263</v>
       </c>
       <c r="N2">
-        <v>14.007796</v>
+        <v>1.473789</v>
       </c>
       <c r="O2">
-        <v>0.8833113458668934</v>
+        <v>0.08507192955174298</v>
       </c>
       <c r="P2">
-        <v>0.8833113458668933</v>
+        <v>0.08507192955174299</v>
       </c>
       <c r="Q2">
-        <v>35.08857178060666</v>
+        <v>3.691740736085</v>
       </c>
       <c r="R2">
-        <v>315.7971460254599</v>
+        <v>33.225666624765</v>
       </c>
       <c r="S2">
-        <v>0.8763751015594327</v>
+        <v>0.08317223062334217</v>
       </c>
       <c r="T2">
-        <v>0.8763751015594325</v>
+        <v>0.08317223062334218</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +602,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5993529999999999</v>
+        <v>4.669265333333333</v>
       </c>
       <c r="N3">
-        <v>1.798059</v>
+        <v>14.007796</v>
       </c>
       <c r="O3">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815603</v>
       </c>
       <c r="P3">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815605</v>
       </c>
       <c r="Q3">
-        <v>4.504014927634999</v>
+        <v>35.08857178060666</v>
       </c>
       <c r="R3">
-        <v>40.536134348715</v>
+        <v>315.7971460254599</v>
       </c>
       <c r="S3">
-        <v>0.1124926532864165</v>
+        <v>0.7905199722868944</v>
       </c>
       <c r="T3">
-        <v>0.1124926532864165</v>
+        <v>0.7905199722868946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,40 +664,40 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.017474</v>
+        <v>0.6141496666666667</v>
       </c>
       <c r="N4">
-        <v>0.052422</v>
+        <v>1.842449</v>
       </c>
       <c r="O4">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="P4">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="Q4">
-        <v>0.13131352783</v>
+        <v>4.615208844318333</v>
       </c>
       <c r="R4">
-        <v>1.18182175047</v>
+        <v>41.536879598865</v>
       </c>
       <c r="S4">
-        <v>0.003279697646506887</v>
+        <v>0.1039772946736244</v>
       </c>
       <c r="T4">
-        <v>0.003279697646506887</v>
+        <v>0.1039772946736244</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H5">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I5">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J5">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.669265333333333</v>
+        <v>0.491263</v>
       </c>
       <c r="N5">
-        <v>14.007796</v>
+        <v>1.473789</v>
       </c>
       <c r="O5">
-        <v>0.8833113458668934</v>
+        <v>0.08507192955174298</v>
       </c>
       <c r="P5">
-        <v>0.8833113458668933</v>
+        <v>0.08507192955174299</v>
       </c>
       <c r="Q5">
-        <v>0.2777154506524444</v>
+        <v>0.08432136384599999</v>
       </c>
       <c r="R5">
-        <v>2.499439055872</v>
+        <v>0.758892274614</v>
       </c>
       <c r="S5">
-        <v>0.006936244307460713</v>
+        <v>0.001899698928400801</v>
       </c>
       <c r="T5">
-        <v>0.006936244307460713</v>
+        <v>0.001899698928400802</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,25 +773,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H6">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I6">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J6">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5993529999999999</v>
+        <v>4.669265333333333</v>
       </c>
       <c r="N6">
-        <v>1.798059</v>
+        <v>14.007796</v>
       </c>
       <c r="O6">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815603</v>
       </c>
       <c r="P6">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815605</v>
       </c>
       <c r="Q6">
-        <v>0.03564791816533333</v>
+        <v>0.8014420403439998</v>
       </c>
       <c r="R6">
-        <v>0.320831263488</v>
+        <v>7.212978363095999</v>
       </c>
       <c r="S6">
-        <v>0.0008903453836155596</v>
+        <v>0.01805590559466587</v>
       </c>
       <c r="T6">
-        <v>0.0008903453836155597</v>
+        <v>0.01805590559466588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +835,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H7">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I7">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J7">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.017474</v>
+        <v>0.6141496666666667</v>
       </c>
       <c r="N7">
-        <v>0.052422</v>
+        <v>1.842449</v>
       </c>
       <c r="O7">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="P7">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="Q7">
-        <v>0.001039306922666667</v>
+        <v>0.105413877086</v>
       </c>
       <c r="R7">
-        <v>0.009353762304</v>
+        <v>0.948724893774</v>
       </c>
       <c r="S7">
-        <v>2.595781656769598E-05</v>
+        <v>0.002374897893072297</v>
       </c>
       <c r="T7">
-        <v>2.595781656769599E-05</v>
+        <v>0.002374897893072297</v>
       </c>
     </row>
   </sheetData>
